--- a/PerformanceAnalysis.xlsx
+++ b/PerformanceAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelinia\Documents\CIS 565\Project6-Vulkan-Grass-Rendering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37F77AD6-5CC5-4A10-95EA-9141178906D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E8F6517-D5B5-4BB3-B892-0E69028B5B43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="6336" xr2:uid="{88967768-8D13-4C03-ADBA-2525D0F54447}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="6336" activeTab="1" xr2:uid="{88967768-8D13-4C03-ADBA-2525D0F54447}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Blades" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Blades</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Distance Culling</t>
@@ -62,6 +59,27 @@
   </si>
   <si>
     <t>Frustum Culling</t>
+  </si>
+  <si>
+    <t>Level:</t>
+  </si>
+  <si>
+    <t>Num blades:</t>
+  </si>
+  <si>
+    <t>All culling on</t>
+  </si>
+  <si>
+    <t>Culling off</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>Minus level 1</t>
   </si>
 </sst>
 </file>
@@ -2237,6 +2255,505 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Time Per Frame VS  Tessellation Level</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tessellation Level'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tessellation Level'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tessellation Level'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.129916666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.619483333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.986933333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.041950000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.668975000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.754516666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.970827272727274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.488666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.894283333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.778039999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E91-4566-B3CC-273FAAF29CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="521221912"/>
+        <c:axId val="521223880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521221912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tessellation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Level</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521223880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521223880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521221912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2317,6 +2834,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -2843,6 +3400,531 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3438,6 +4520,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC23864B-AECA-4715-A0F9-F1F9C116337D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3745,7 +4868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7977D632-6C3D-4401-B54B-D8EA99888020}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+    <sheetView topLeftCell="L22" workbookViewId="0">
       <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
@@ -3756,19 +4879,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,7 +5768,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -4961,7 +6084,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -5209,7 +6332,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -5437,7 +6560,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -5649,73 +6772,867 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C575A2E-4DDC-4763-B236-31212BB1708F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>AVERAGE(B17:B27)</f>
+        <v>1.8197390909090911</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B39:B44)</f>
+        <v>12.129916666666666</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>AVERAGE(C17:C32)</f>
+        <v>1.8151899999999999</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(C39:C44)</f>
+        <v>12.619483333333333</v>
+      </c>
+      <c r="E3">
+        <f>D3-D$2</f>
+        <v>0.48956666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(D17:D30)</f>
+        <v>1.8485900000000002</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(D39:D44)</f>
+        <v>13.986933333333331</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">D4-D$2</f>
+        <v>1.8570166666666648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(E17:E28)</f>
+        <v>1.8231908333333333</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(E39:E44)</f>
+        <v>15.041950000000002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.9120333333333352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(F17:F32)</f>
+        <v>1.8322437500000002</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(F39:F46)</f>
+        <v>16.668975000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.5390583333333367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(G17:G28)</f>
+        <v>1.8120283333333338</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(G39:G44)</f>
+        <v>16.754516666666671</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.6246000000000045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(H39:H49)</f>
+        <v>17.970827272727274</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.8409106060606071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(I39:I56)</f>
+        <v>17.488666666666667</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.3587500000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(J39:J44)</f>
+        <v>25.894283333333334</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13.764366666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(K17:K29)</f>
+        <v>1.9345092307692306</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(K39:K43)</f>
+        <v>29.778039999999997</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>17.648123333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="E15">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F15">
         <v>10</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1.8468899999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.80338</v>
+      </c>
+      <c r="D17">
+        <v>1.80162</v>
+      </c>
+      <c r="E17">
+        <v>1.8209599999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.84412</v>
+      </c>
+      <c r="G17">
+        <v>1.8329899999999999</v>
+      </c>
+      <c r="K17">
+        <v>1.99786</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1.7500599999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.78705</v>
+      </c>
+      <c r="D18">
+        <v>1.81141</v>
+      </c>
+      <c r="E18">
+        <v>1.8035099999999999</v>
+      </c>
+      <c r="F18">
+        <v>1.78982</v>
+      </c>
+      <c r="G18">
+        <v>1.81229</v>
+      </c>
+      <c r="K18">
+        <v>1.9937</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1.7840499999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.7825599999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.81436</v>
+      </c>
+      <c r="E19">
+        <v>1.81742</v>
+      </c>
+      <c r="F19">
+        <v>1.7676400000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.80928</v>
+      </c>
+      <c r="K19">
+        <v>2.0047199999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1.8067200000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.77956</v>
+      </c>
+      <c r="D20">
+        <v>1.80993</v>
+      </c>
+      <c r="E20">
+        <v>1.8130500000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.79775</v>
+      </c>
+      <c r="G20">
+        <v>1.8047599999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.9031800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1.8145500000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.79481</v>
+      </c>
+      <c r="D21">
+        <v>1.8821300000000001</v>
+      </c>
+      <c r="E21">
+        <v>1.80599</v>
+      </c>
+      <c r="F21">
+        <v>1.7767200000000001</v>
+      </c>
+      <c r="G21">
+        <v>1.7870900000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.8867400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1.8260799999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.7864899999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.9427300000000001</v>
+      </c>
+      <c r="E22">
+        <v>1.84639</v>
+      </c>
+      <c r="F22">
+        <v>1.8013699999999999</v>
+      </c>
+      <c r="G22">
+        <v>1.7885599999999999</v>
+      </c>
+      <c r="K22">
+        <v>1.9109100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1.8000700000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.8291599999999999</v>
+      </c>
+      <c r="D23">
+        <v>1.9274500000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.8370299999999999</v>
+      </c>
+      <c r="F23">
+        <v>1.8561399999999999</v>
+      </c>
+      <c r="G23">
+        <v>1.8340700000000001</v>
+      </c>
+      <c r="K23">
+        <v>1.9255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1.82186</v>
+      </c>
+      <c r="C24">
+        <v>1.8210599999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.86087</v>
+      </c>
+      <c r="E24">
+        <v>1.85226</v>
+      </c>
+      <c r="F24">
+        <v>1.8059499999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.7855099999999999</v>
+      </c>
+      <c r="K24">
+        <v>1.88523</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1.82006</v>
+      </c>
+      <c r="C25">
+        <v>1.79108</v>
+      </c>
+      <c r="D25">
+        <v>1.93912</v>
+      </c>
+      <c r="E25">
+        <v>1.8232200000000001</v>
+      </c>
+      <c r="F25">
+        <v>1.8553200000000001</v>
+      </c>
+      <c r="G25">
+        <v>1.7926899999999999</v>
+      </c>
+      <c r="K25">
+        <v>1.89621</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1.7978499999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.9144600000000001</v>
+      </c>
+      <c r="D26">
+        <v>1.82959</v>
+      </c>
+      <c r="E26">
+        <v>1.8360300000000001</v>
+      </c>
+      <c r="F26">
+        <v>1.8365100000000001</v>
+      </c>
+      <c r="G26">
+        <v>1.8359399999999999</v>
+      </c>
+      <c r="K26">
+        <v>1.90699</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1.9489399999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.9505300000000001</v>
+      </c>
+      <c r="D27">
+        <v>1.7955099999999999</v>
+      </c>
+      <c r="E27">
+        <v>1.8016000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1.81494</v>
+      </c>
+      <c r="G27">
+        <v>1.8364100000000001</v>
+      </c>
+      <c r="K27">
+        <v>1.89238</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1.8417300000000001</v>
+      </c>
+      <c r="D28">
+        <v>1.8258700000000001</v>
+      </c>
+      <c r="E28">
+        <v>1.8208299999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.85049</v>
+      </c>
+      <c r="G28">
+        <v>1.8247500000000001</v>
+      </c>
+      <c r="K28">
+        <v>1.9734400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1.78813</v>
+      </c>
+      <c r="D29">
+        <v>1.8468800000000001</v>
+      </c>
+      <c r="F29">
+        <v>1.8166</v>
+      </c>
+      <c r="K29">
+        <v>1.97176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1.7941800000000001</v>
+      </c>
+      <c r="D30">
+        <v>1.7927900000000001</v>
+      </c>
+      <c r="F30">
+        <v>1.95682</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1.78505</v>
+      </c>
+      <c r="F31">
+        <v>1.8758600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1.7938099999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.86985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>11.984</v>
+      </c>
+      <c r="C39">
+        <v>12.5619</v>
+      </c>
+      <c r="D39">
+        <v>14.0852</v>
+      </c>
+      <c r="E39">
+        <v>15.0082</v>
+      </c>
+      <c r="F39">
+        <v>16.671900000000001</v>
+      </c>
+      <c r="G39">
+        <v>16.725000000000001</v>
+      </c>
+      <c r="H39">
+        <v>17.917999999999999</v>
+      </c>
+      <c r="I39">
+        <v>17.508900000000001</v>
+      </c>
+      <c r="J39">
+        <v>24.714600000000001</v>
+      </c>
+      <c r="K39">
+        <v>28.1736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>11.954599999999999</v>
+      </c>
+      <c r="C40">
+        <v>12.332800000000001</v>
+      </c>
+      <c r="D40">
+        <v>14.061400000000001</v>
+      </c>
+      <c r="E40">
+        <v>15.073700000000001</v>
+      </c>
+      <c r="F40">
+        <v>16.663499999999999</v>
+      </c>
+      <c r="G40">
+        <v>16.764500000000002</v>
+      </c>
+      <c r="H40">
+        <v>17.846399999999999</v>
+      </c>
+      <c r="I40">
+        <v>17.4773</v>
+      </c>
+      <c r="J40">
+        <v>26.193100000000001</v>
+      </c>
+      <c r="K40">
+        <v>30.661000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>11.8622</v>
+      </c>
+      <c r="C41">
+        <v>12.494899999999999</v>
+      </c>
+      <c r="D41">
+        <v>13.8606</v>
+      </c>
+      <c r="E41">
+        <v>15.034700000000001</v>
+      </c>
+      <c r="F41">
+        <v>16.681000000000001</v>
+      </c>
+      <c r="G41">
+        <v>16.7485</v>
+      </c>
+      <c r="H41">
+        <v>17.713000000000001</v>
+      </c>
+      <c r="I41">
+        <v>17.501899999999999</v>
+      </c>
+      <c r="J41">
+        <v>26.034099999999999</v>
+      </c>
+      <c r="K41">
+        <v>30.648700000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>12.0871</v>
+      </c>
+      <c r="C42">
+        <v>12.8215</v>
+      </c>
+      <c r="D42">
+        <v>14.022</v>
+      </c>
+      <c r="E42">
+        <v>15.0434</v>
+      </c>
+      <c r="F42">
+        <v>16.683800000000002</v>
+      </c>
+      <c r="G42">
+        <v>16.747299999999999</v>
+      </c>
+      <c r="H42">
+        <v>17.7454</v>
+      </c>
+      <c r="I42">
+        <v>17.625499999999999</v>
+      </c>
+      <c r="J42">
+        <v>26.136500000000002</v>
+      </c>
+      <c r="K42">
+        <v>29.620799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>12.8964</v>
+      </c>
+      <c r="C43">
+        <v>12.7906</v>
+      </c>
+      <c r="D43">
+        <v>13.924300000000001</v>
+      </c>
+      <c r="E43">
+        <v>14.975099999999999</v>
+      </c>
+      <c r="F43">
+        <v>16.628799999999998</v>
+      </c>
+      <c r="G43">
+        <v>16.724799999999998</v>
+      </c>
+      <c r="H43">
+        <v>17.9786</v>
+      </c>
+      <c r="I43">
+        <v>17.499600000000001</v>
+      </c>
+      <c r="J43">
+        <v>26.116099999999999</v>
+      </c>
+      <c r="K43">
+        <v>29.786100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>11.995200000000001</v>
+      </c>
+      <c r="C44">
+        <v>12.715199999999999</v>
+      </c>
+      <c r="D44">
+        <v>13.9681</v>
+      </c>
+      <c r="E44">
+        <v>15.1166</v>
+      </c>
+      <c r="F44">
+        <v>16.680599999999998</v>
+      </c>
+      <c r="G44">
+        <v>16.817</v>
+      </c>
+      <c r="H44">
+        <v>17.8111</v>
+      </c>
+      <c r="I44">
+        <v>17.474699999999999</v>
+      </c>
+      <c r="J44">
+        <v>26.171299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>16.680800000000001</v>
+      </c>
+      <c r="H45">
+        <v>18.096599999999999</v>
+      </c>
+      <c r="I45">
+        <v>17.453600000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>16.6614</v>
+      </c>
+      <c r="H46">
+        <v>18.238800000000001</v>
+      </c>
+      <c r="I46">
+        <v>17.572099999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>18.174900000000001</v>
+      </c>
+      <c r="I47">
+        <v>17.453700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>18.257999999999999</v>
+      </c>
+      <c r="I48">
+        <v>17.4772</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>17.898299999999999</v>
+      </c>
+      <c r="I49">
+        <v>17.521799999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>17.448</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>17.414300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>17.427700000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>17.571200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>17.376899999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>17.576699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>17.414899999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>